--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1235168.865344793</v>
+        <v>1232467.760569839</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673442</v>
+        <v>603248.4937673447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10835488.61606485</v>
+        <v>10835488.61606484</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>180.8244779223034</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>96.86671316392734</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V3" t="n">
-        <v>99.61425498486223</v>
+        <v>113.7320450640833</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="4">
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>34.10833718734057</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>370.9060201392874</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -947,22 +947,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>154.1385898684638</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>36.29946757904885</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>148.3060575697918</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>187.9784896091972</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>9.702330917109718</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>163.3211998975087</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>103.2996526646643</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.8334918085936</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9453895236494</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.72779446896607</v>
+        <v>76.72779446896601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.9646330484317</v>
       </c>
       <c r="T8" t="n">
-        <v>207.9092264837461</v>
+        <v>154.4932117579461</v>
       </c>
       <c r="U8" t="n">
         <v>251.0681132513132</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>123.7541816074652</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.30836251344155</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35.61339202271521</v>
+        <v>35.61339202271519</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.43165252365266</v>
+        <v>30.43165252365262</v>
       </c>
       <c r="S9" t="n">
         <v>137.2048826855192</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>93.39166045449532</v>
       </c>
     </row>
     <row r="10">
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>152.6359424592733</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.9731991423711</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.19579633461527</v>
+        <v>21.19579633461521</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.321691302451</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2341465824415</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>71.10273938153412</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>265.1339584514344</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
@@ -1388,7 +1388,7 @@
         <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114112</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6087856860855</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035252</v>
+        <v>9.753166794035309</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>124.1004521009494</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>125.9698748104825</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146349</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754648</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1661,7 +1661,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>200.6173698503544</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>81.37259901119252</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>18.22623717053371</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986248</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>26.703916880933</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>99.97427419833915</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>115.7063133373723</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>64.91921363453632</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>13.72582864853715</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>74.99129529219145</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833937</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272868</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>133.1599107083205</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983365</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890385</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>53.26309598425074</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>99.9742741983369</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.168699193619</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>146.0535160667523</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G40" t="n">
-        <v>157.2343752954197</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833858</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444134</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4138,13 +4138,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>18.70843787977245</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>589.7227393823979</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="C2" t="n">
-        <v>589.7227393823979</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="D2" t="n">
-        <v>400.3029543659131</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656066</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912181</v>
+        <v>126.0773463611696</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>112.8472117853534</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823979</v>
+        <v>511.8624171433421</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823979</v>
+        <v>511.8624171433421</v>
       </c>
       <c r="U2" t="n">
-        <v>589.7227393823979</v>
+        <v>322.4426321268576</v>
       </c>
       <c r="V2" t="n">
-        <v>589.7227393823979</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="W2" t="n">
-        <v>589.7227393823979</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="X2" t="n">
-        <v>589.7227393823979</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="Y2" t="n">
-        <v>589.7227393823979</v>
+        <v>133.0228471103731</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>425.0342726003555</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C3" t="n">
-        <v>425.0342726003555</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D3" t="n">
-        <v>276.0998629391042</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546596</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264281</v>
+        <v>676.9378076264268</v>
       </c>
       <c r="S3" t="n">
-        <v>525.6547321810244</v>
+        <v>676.9378076264268</v>
       </c>
       <c r="T3" t="n">
-        <v>525.6547321810244</v>
+        <v>676.9378076264268</v>
       </c>
       <c r="U3" t="n">
-        <v>525.6547321810244</v>
+        <v>487.5180226099422</v>
       </c>
       <c r="V3" t="n">
-        <v>425.0342726003555</v>
+        <v>372.6371690098581</v>
       </c>
       <c r="W3" t="n">
-        <v>425.0342726003555</v>
+        <v>372.6371690098581</v>
       </c>
       <c r="X3" t="n">
-        <v>425.0342726003555</v>
+        <v>372.6371690098581</v>
       </c>
       <c r="Y3" t="n">
-        <v>425.0342726003555</v>
+        <v>183.2173839933736</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="V4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>919.9514261357785</v>
+        <v>931.087133138783</v>
       </c>
       <c r="C5" t="n">
-        <v>919.9514261357785</v>
+        <v>931.087133138783</v>
       </c>
       <c r="D5" t="n">
-        <v>919.9514261357785</v>
+        <v>931.087133138783</v>
       </c>
       <c r="E5" t="n">
         <v>545.2988805405388</v>
@@ -4568,16 +4568,16 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O5" t="n">
         <v>1761.960612545596</v>
@@ -4595,22 +4595,22 @@
         <v>2036.325171642784</v>
       </c>
       <c r="T5" t="n">
-        <v>2036.325171642784</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U5" t="n">
-        <v>2036.325171642784</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="V5" t="n">
-        <v>2036.325171642784</v>
+        <v>1670.455628473019</v>
       </c>
       <c r="W5" t="n">
-        <v>1683.55651637267</v>
+        <v>1317.686973202905</v>
       </c>
       <c r="X5" t="n">
-        <v>1310.09075811159</v>
+        <v>1317.686973202905</v>
       </c>
       <c r="Y5" t="n">
-        <v>919.9514261357785</v>
+        <v>1317.686973202905</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>312.3666861218701</v>
+        <v>562.6602193536529</v>
       </c>
       <c r="C6" t="n">
-        <v>312.3666861218701</v>
+        <v>388.2071900725259</v>
       </c>
       <c r="D6" t="n">
-        <v>312.3666861218701</v>
+        <v>239.2727804112747</v>
       </c>
       <c r="E6" t="n">
-        <v>312.3666861218701</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3666861218701</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="G6" t="n">
-        <v>175.490692336986</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H6" t="n">
         <v>80.03532540581918</v>
@@ -4668,28 +4668,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S6" t="n">
-        <v>1595.273638474382</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.469539919037</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="U6" t="n">
-        <v>1217.367950052301</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="V6" t="n">
-        <v>982.2158418205584</v>
+        <v>1336.36461757572</v>
       </c>
       <c r="W6" t="n">
-        <v>727.9784850923568</v>
+        <v>1146.487355344208</v>
       </c>
       <c r="X6" t="n">
-        <v>520.1269848868239</v>
+        <v>938.6358551386747</v>
       </c>
       <c r="Y6" t="n">
-        <v>312.3666861218701</v>
+        <v>730.8755563737209</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.50721699905162</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C7" t="n">
-        <v>71.50721699905162</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D7" t="n">
-        <v>71.50721699905162</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E7" t="n">
-        <v>71.50721699905162</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F7" t="n">
-        <v>71.50721699905162</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G7" t="n">
-        <v>71.50721699905162</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>71.50721699905162</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
         <v>43.36919653809306</v>
@@ -4744,31 +4744,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U7" t="n">
-        <v>520.2893470405991</v>
+        <v>208.3401055254756</v>
       </c>
       <c r="V7" t="n">
-        <v>520.2893470405991</v>
+        <v>208.3401055254756</v>
       </c>
       <c r="W7" t="n">
-        <v>520.2893470405991</v>
+        <v>208.3401055254756</v>
       </c>
       <c r="X7" t="n">
-        <v>292.2997961425817</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y7" t="n">
-        <v>71.50721699905162</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1360.118202200997</v>
+        <v>1299.469939226204</v>
       </c>
       <c r="C8" t="n">
-        <v>1360.118202200997</v>
+        <v>930.5074222857927</v>
       </c>
       <c r="D8" t="n">
-        <v>1255.775118701336</v>
+        <v>930.5074222857927</v>
       </c>
       <c r="E8" t="n">
-        <v>1255.775118701336</v>
+        <v>544.7191696875485</v>
       </c>
       <c r="F8" t="n">
-        <v>844.7892139117284</v>
+        <v>537.7736689383451</v>
       </c>
       <c r="G8" t="n">
-        <v>428.7957878424419</v>
+        <v>121.7802428690587</v>
       </c>
       <c r="H8" t="n">
         <v>121.7802428690587</v>
       </c>
       <c r="I8" t="n">
-        <v>44.27742017313334</v>
+        <v>44.27742017313339</v>
       </c>
       <c r="J8" t="n">
-        <v>156.5453885494317</v>
+        <v>156.5453885494321</v>
       </c>
       <c r="K8" t="n">
-        <v>375.5444889229398</v>
+        <v>375.5444889229407</v>
       </c>
       <c r="L8" t="n">
-        <v>684.1340000193441</v>
+        <v>684.1340000193454</v>
       </c>
       <c r="M8" t="n">
-        <v>1059.168727391405</v>
+        <v>1059.168727391407</v>
       </c>
       <c r="N8" t="n">
-        <v>1444.885717117916</v>
+        <v>1444.885717117917</v>
       </c>
       <c r="O8" t="n">
-        <v>1795.772071623104</v>
+        <v>1795.772071623106</v>
       </c>
       <c r="P8" t="n">
-        <v>2060.744456291605</v>
+        <v>2060.744456291607</v>
       </c>
       <c r="Q8" t="n">
-        <v>2211.554935535257</v>
+        <v>2211.55493553526</v>
       </c>
       <c r="R8" t="n">
-        <v>2213.871008656667</v>
+        <v>2213.871008656669</v>
       </c>
       <c r="S8" t="n">
-        <v>2213.871008656667</v>
+        <v>2082.593601537041</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.861688976115</v>
+        <v>1926.539852286591</v>
       </c>
       <c r="U8" t="n">
-        <v>1750.257534176809</v>
+        <v>1672.935697487284</v>
       </c>
       <c r="V8" t="n">
-        <v>1750.257534176809</v>
+        <v>1672.935697487284</v>
       </c>
       <c r="W8" t="n">
-        <v>1750.257534176809</v>
+        <v>1672.935697487284</v>
       </c>
       <c r="X8" t="n">
-        <v>1750.257534176809</v>
+        <v>1299.469939226204</v>
       </c>
       <c r="Y8" t="n">
-        <v>1360.118202200997</v>
+        <v>1299.469939226204</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>300.5157395101252</v>
+        <v>413.9410277149838</v>
       </c>
       <c r="C9" t="n">
-        <v>300.5157395101252</v>
+        <v>239.4879984338568</v>
       </c>
       <c r="D9" t="n">
-        <v>300.5157395101252</v>
+        <v>239.4879984338568</v>
       </c>
       <c r="E9" t="n">
-        <v>300.5157395101252</v>
+        <v>80.25054342840126</v>
       </c>
       <c r="F9" t="n">
-        <v>300.5157395101252</v>
+        <v>80.25054342840126</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5115156642008</v>
+        <v>80.25054342840126</v>
       </c>
       <c r="H9" t="n">
-        <v>80.25054342840123</v>
+        <v>80.25054342840126</v>
       </c>
       <c r="I9" t="n">
-        <v>44.27742017313334</v>
+        <v>44.27742017313339</v>
       </c>
       <c r="J9" t="n">
-        <v>92.32560606848422</v>
+        <v>92.32560606848435</v>
       </c>
       <c r="K9" t="n">
-        <v>252.6024334910149</v>
+        <v>252.6024334910151</v>
       </c>
       <c r="L9" t="n">
-        <v>514.4369485047774</v>
+        <v>514.4369485047779</v>
       </c>
       <c r="M9" t="n">
-        <v>839.3423457618856</v>
+        <v>839.3423457618861</v>
       </c>
       <c r="N9" t="n">
-        <v>1187.255667013954</v>
+        <v>1187.255667013955</v>
       </c>
       <c r="O9" t="n">
-        <v>1483.308590376467</v>
+        <v>1483.308590376468</v>
       </c>
       <c r="P9" t="n">
-        <v>1701.584095618379</v>
+        <v>1701.58409561838</v>
       </c>
       <c r="Q9" t="n">
-        <v>1797.576293952197</v>
+        <v>1797.576293952198</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.837250999012</v>
+        <v>1766.837250999013</v>
       </c>
       <c r="S9" t="n">
-        <v>1628.246460407579</v>
+        <v>1628.24646040758</v>
       </c>
       <c r="T9" t="n">
-        <v>1433.617269092746</v>
+        <v>1433.617269092747</v>
       </c>
       <c r="U9" t="n">
-        <v>1205.517003440556</v>
+        <v>1205.517003440557</v>
       </c>
       <c r="V9" t="n">
-        <v>970.3648952088136</v>
+        <v>970.3648952088145</v>
       </c>
       <c r="W9" t="n">
-        <v>716.127538480612</v>
+        <v>716.1275384806129</v>
       </c>
       <c r="X9" t="n">
-        <v>508.2760382750791</v>
+        <v>508.2760382750801</v>
       </c>
       <c r="Y9" t="n">
-        <v>300.5157395101252</v>
+        <v>413.9410277149838</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.6295184220485</v>
+        <v>44.27742017313339</v>
       </c>
       <c r="C10" t="n">
-        <v>359.4517987662168</v>
+        <v>44.27742017313339</v>
       </c>
       <c r="D10" t="n">
-        <v>209.3351593538811</v>
+        <v>44.27742017313339</v>
       </c>
       <c r="E10" t="n">
-        <v>61.42206577148799</v>
+        <v>44.27742017313339</v>
       </c>
       <c r="F10" t="n">
-        <v>61.42206577148799</v>
+        <v>44.27742017313339</v>
       </c>
       <c r="G10" t="n">
-        <v>61.42206577148799</v>
+        <v>44.27742017313339</v>
       </c>
       <c r="H10" t="n">
-        <v>61.42206577148799</v>
+        <v>44.27742017313339</v>
       </c>
       <c r="I10" t="n">
-        <v>61.42206577148799</v>
+        <v>44.27742017313339</v>
       </c>
       <c r="J10" t="n">
-        <v>44.27742017313334</v>
+        <v>44.27742017313339</v>
       </c>
       <c r="K10" t="n">
-        <v>95.54660022226389</v>
+        <v>95.54660022226403</v>
       </c>
       <c r="L10" t="n">
-        <v>191.0592970264678</v>
+        <v>191.059297026468</v>
       </c>
       <c r="M10" t="n">
-        <v>295.0223269524041</v>
+        <v>295.0223269524045</v>
       </c>
       <c r="N10" t="n">
-        <v>404.3708743014471</v>
+        <v>404.3708743014476</v>
       </c>
       <c r="O10" t="n">
-        <v>485.0588674359235</v>
+        <v>485.058867435924</v>
       </c>
       <c r="P10" t="n">
-        <v>535.0394137095386</v>
+        <v>535.0394137095393</v>
       </c>
       <c r="Q10" t="n">
-        <v>513.6295184220485</v>
+        <v>513.6295184220492</v>
       </c>
       <c r="R10" t="n">
-        <v>513.6295184220485</v>
+        <v>405.2237696316946</v>
       </c>
       <c r="S10" t="n">
-        <v>513.6295184220485</v>
+        <v>405.2237696316946</v>
       </c>
       <c r="T10" t="n">
-        <v>513.6295184220485</v>
+        <v>405.2237696316946</v>
       </c>
       <c r="U10" t="n">
-        <v>513.6295184220485</v>
+        <v>116.0983690433699</v>
       </c>
       <c r="V10" t="n">
-        <v>513.6295184220485</v>
+        <v>116.0983690433699</v>
       </c>
       <c r="W10" t="n">
-        <v>513.6295184220485</v>
+        <v>116.0983690433699</v>
       </c>
       <c r="X10" t="n">
-        <v>513.6295184220485</v>
+        <v>44.27742017313339</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.6295184220485</v>
+        <v>44.27742017313339</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2309.582538042864</v>
+        <v>1563.167068012547</v>
       </c>
       <c r="C11" t="n">
-        <v>1940.620021102452</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="D11" t="n">
-        <v>1582.354322495702</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.566069897457</v>
+        <v>808.4162984738909</v>
       </c>
       <c r="F11" t="n">
-        <v>785.5801651078498</v>
+        <v>808.4162984738909</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>393.840852803538</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469182</v>
+        <v>101.3471995907327</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386824</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420323</v>
+        <v>704.515510442031</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878106</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765425</v>
+        <v>2485.180661765421</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687101</v>
+        <v>3070.226377687097</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856282</v>
+        <v>3535.048359856278</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388224</v>
+        <v>3835.937563882236</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234591</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234591</v>
+        <v>3826.588132455657</v>
       </c>
       <c r="T11" t="n">
-        <v>3925.553311234591</v>
+        <v>3622.786021971437</v>
       </c>
       <c r="U11" t="n">
-        <v>3672.062594867199</v>
+        <v>3369.295305604045</v>
       </c>
       <c r="V11" t="n">
-        <v>3340.999707523628</v>
+        <v>3038.232418260474</v>
       </c>
       <c r="W11" t="n">
-        <v>3340.999707523628</v>
+        <v>2685.46376299036</v>
       </c>
       <c r="X11" t="n">
-        <v>2967.533949262549</v>
+        <v>2311.99800472928</v>
       </c>
       <c r="Y11" t="n">
-        <v>2577.394617286737</v>
+        <v>1949.766908076669</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792128</v>
+        <v>196.8120623792125</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376501</v>
+        <v>477.1621322376495</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649596</v>
+        <v>900.4499396649587</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908849</v>
+        <v>1413.763713908847</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259915</v>
+        <v>1518.698809735876</v>
       </c>
       <c r="O12" t="n">
-        <v>2428.043574125664</v>
+        <v>1991.670362601624</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>692.2860838767581</v>
+        <v>203.8650582458529</v>
       </c>
       <c r="C13" t="n">
-        <v>523.3499009488512</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="D13" t="n">
-        <v>373.2332615365153</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="E13" t="n">
-        <v>245.9909637481491</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="F13" t="n">
-        <v>245.9909637481491</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>139.0818334600397</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457703</v>
+        <v>368.4550473457696</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888914</v>
+        <v>717.5002252888905</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551104</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551104</v>
+        <v>1888.302075370153</v>
       </c>
       <c r="T13" t="n">
-        <v>2155.909043551104</v>
+        <v>1667.488017920199</v>
       </c>
       <c r="U13" t="n">
-        <v>1866.818336991393</v>
+        <v>1378.397311360488</v>
       </c>
       <c r="V13" t="n">
-        <v>1612.133848785506</v>
+        <v>1123.712823154601</v>
       </c>
       <c r="W13" t="n">
-        <v>1322.716678748545</v>
+        <v>834.2956531176401</v>
       </c>
       <c r="X13" t="n">
-        <v>1094.727127850528</v>
+        <v>606.3061022196227</v>
       </c>
       <c r="Y13" t="n">
-        <v>873.9345487069978</v>
+        <v>385.5135230760926</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965431</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358681</v>
+        <v>1539.196732007881</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409637</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708297</v>
+        <v>742.4225746200289</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
@@ -5276,25 +5276,25 @@
         <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128751</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874792</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.60923933393</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021278</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
         <v>4514.497374127286</v>
@@ -5303,25 +5303,25 @@
         <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070874</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
         <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820541</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.19805447697</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206856</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945776</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969964</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779263</v>
+        <v>241.4986375524489</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412851</v>
+        <v>572.0073801158076</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385036</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1653.719034637164</v>
+        <v>1654.758067211686</v>
       </c>
       <c r="N15" t="n">
-        <v>2275.8149980365</v>
+        <v>1654.758067211686</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1015.754398433617</v>
+        <v>494.0589900220728</v>
       </c>
       <c r="C16" t="n">
-        <v>846.8182155057104</v>
+        <v>325.1228070941659</v>
       </c>
       <c r="D16" t="n">
-        <v>696.7015760933746</v>
+        <v>175.0061676818302</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109816</v>
+        <v>175.0061676818302</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130712</v>
+        <v>175.0061676818302</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876501</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
         <v>92.81162322608048</v>
@@ -5434,7 +5434,7 @@
         <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156341</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
         <v>431.4224730861979</v>
@@ -5449,7 +5449,7 @@
         <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020527</v>
       </c>
       <c r="P16" t="n">
         <v>2310.662640856732</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410167</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.696992124549</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>2190.286651548252</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1935.602163342365</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1646.184993305405</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1418.195442407387</v>
+        <v>896.5000339958426</v>
       </c>
       <c r="Y16" t="n">
-        <v>1197.402863263857</v>
+        <v>675.7074548523125</v>
       </c>
     </row>
     <row r="17">
@@ -5507,40 +5507,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516142</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1804.131916132773</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836009</v>
+        <v>513.8536007400692</v>
       </c>
       <c r="C19" t="n">
-        <v>565.709996955694</v>
+        <v>344.9174178121654</v>
       </c>
       <c r="D19" t="n">
-        <v>415.5933575433583</v>
+        <v>194.8007783998296</v>
       </c>
       <c r="E19" t="n">
-        <v>267.6802639609652</v>
+        <v>194.8007783998296</v>
       </c>
       <c r="F19" t="n">
-        <v>120.790316463055</v>
+        <v>194.8007783998296</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998296</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138406</v>
+        <v>916.294644713839</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138406</v>
+        <v>695.5020655703089</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>991.7436897307816</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>822.8075068028747</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D22" t="n">
-        <v>672.6908673905389</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>524.7777738081456</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>377.8878263102354</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>210.6917270251157</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782961</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>1173.392154561021</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6005,10 +6005,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>184.7035232280589</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057243</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778174</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654816</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830886</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851784</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400725</v>
       </c>
       <c r="C28" t="n">
-        <v>631.5645865368213</v>
+        <v>344.9174178121656</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133955</v>
+        <v>194.8007783998298</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310024</v>
+        <v>194.8007783998298</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998298</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703122</v>
       </c>
     </row>
     <row r="29">
@@ -6537,16 +6537,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336516</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138394</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949681</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,10 +6725,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745237</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>923.4916164683283</v>
+        <v>513.85360074007</v>
       </c>
       <c r="C34" t="n">
-        <v>754.5554335404214</v>
+        <v>344.9174178121631</v>
       </c>
       <c r="D34" t="n">
-        <v>604.4387941280856</v>
+        <v>194.8007783998273</v>
       </c>
       <c r="E34" t="n">
-        <v>456.5257005456925</v>
+        <v>194.8007783998273</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998273</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998273</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6862,46 +6862,46 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797731</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138398</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703097</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,25 +7014,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.864119183223</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>198.0274703142537</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,7 +7096,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797745</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134627</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311988</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C40" t="n">
-        <v>632.755700703292</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D40" t="n">
-        <v>482.6390612909562</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="E40" t="n">
-        <v>334.7259677085631</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F40" t="n">
-        <v>334.7259677085631</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614386</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614386</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="41">
@@ -7403,43 +7403,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.800778399829</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7637,61 +7637,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998284</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998284</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7822,7 +7822,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
@@ -7831,10 +7831,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
         <v>1688.385853854706</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>117.5998832120462</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238032</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114104</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>27.62915296996806</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>43.14636899767841</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>20.46408783608668</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.7150774703404</v>
+        <v>89.71507747034045</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146341</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729275</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.29152613729192</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>84.1694538659744</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440905</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>267.9592143778867</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.8202214113358</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788473</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393102</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>24.58839950885204</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>221.2652607547078</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>211.9838267405</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>73.6241777260209</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409392947</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.6720694736168</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823268</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012264</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>92.15795203868051</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>40.32043864788698</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864982</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>106.0841272570757</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G40" t="n">
-        <v>8.289762996849134</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.4596884482306</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>45.44677382459294</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>126.7126101431588</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862863.0823006349</v>
+        <v>862863.0823006344</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>938330.3365090435</v>
+        <v>938330.3365090434</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>943467.1887688149</v>
+        <v>943467.188768815</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>943467.188768815</v>
+        <v>943467.1887688151</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>943467.188768815</v>
+        <v>943467.1887688149</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>943467.188768815</v>
+        <v>943467.1887688149</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>943467.188768815</v>
+        <v>943467.1887688149</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>943467.188768815</v>
+        <v>943467.1887688149</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>943467.188768815</v>
+        <v>943467.1887688149</v>
       </c>
     </row>
     <row r="15">
@@ -26317,22 +26317,22 @@
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="E2" t="n">
-        <v>442233.6433958224</v>
+        <v>442233.6433958223</v>
       </c>
       <c r="F2" t="n">
-        <v>481607.8629828186</v>
+        <v>481607.8629828184</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="H2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="I2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140037</v>
@@ -26341,13 +26341,13 @@
         <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="M2" t="n">
+        <v>484287.9598140038</v>
+      </c>
+      <c r="N2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="M2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="N2" t="n">
-        <v>484287.9598140034</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140035</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861776</v>
+        <v>392510.244286178</v>
       </c>
       <c r="D3" t="n">
-        <v>11460.51367737874</v>
+        <v>11460.51367737925</v>
       </c>
       <c r="E3" t="n">
-        <v>408312.299968039</v>
+        <v>408312.2999680375</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051378</v>
+        <v>166521.3471051388</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>11167.23623557958</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487776</v>
+        <v>91259.95686487785</v>
       </c>
       <c r="L3" t="n">
-        <v>2873.290350199703</v>
+        <v>2873.290350199819</v>
       </c>
       <c r="M3" t="n">
-        <v>106639.5191329072</v>
+        <v>106639.5191329069</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848903</v>
+        <v>43782.40655848926</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224748</v>
+        <v>3023.297977224857</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.56483413</v>
       </c>
       <c r="C4" t="n">
         <v>174202.9900888976</v>
       </c>
       <c r="D4" t="n">
-        <v>171039.3658295526</v>
+        <v>171039.3658295524</v>
       </c>
       <c r="E4" t="n">
         <v>15947.46301458593</v>
@@ -26439,13 +26439,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189196</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
@@ -26454,10 +26454,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189199</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86091.29148672905</v>
+        <v>86091.29148672911</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214708</v>
+        <v>86093.72216214702</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-434254.2058480189</v>
+        <v>-434254.2058480185</v>
       </c>
       <c r="C6" t="n">
-        <v>-159287.2543123775</v>
+        <v>-159287.2543123779</v>
       </c>
       <c r="D6" t="n">
-        <v>224033.8909249093</v>
+        <v>224033.8909249089</v>
       </c>
       <c r="E6" t="n">
-        <v>-68119.84174894955</v>
+        <v>-68329.80599279299</v>
       </c>
       <c r="F6" t="n">
-        <v>198904.3360131759</v>
+        <v>198858.431017609</v>
       </c>
       <c r="G6" t="n">
-        <v>355951.6097826253</v>
+        <v>355916.8718571893</v>
       </c>
       <c r="H6" t="n">
-        <v>367118.8460182045</v>
+        <v>367084.1080927689</v>
       </c>
       <c r="I6" t="n">
-        <v>367118.8460182046</v>
+        <v>367084.1080927689</v>
       </c>
       <c r="J6" t="n">
-        <v>318053.9012896599</v>
+        <v>318019.1633642244</v>
       </c>
       <c r="K6" t="n">
-        <v>275858.8891533267</v>
+        <v>275824.1512278909</v>
       </c>
       <c r="L6" t="n">
-        <v>364245.5556680048</v>
+        <v>364210.8177425691</v>
       </c>
       <c r="M6" t="n">
-        <v>260479.3268852973</v>
+        <v>260444.5889598621</v>
       </c>
       <c r="N6" t="n">
-        <v>323336.4394597153</v>
+        <v>323301.7015342795</v>
       </c>
       <c r="O6" t="n">
-        <v>364095.5480409797</v>
+        <v>364060.8101155438</v>
       </c>
       <c r="P6" t="n">
-        <v>367118.8460182045</v>
+        <v>367084.1080927688</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>862.9748695021893</v>
+        <v>862.9748695021897</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716385</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
         <v>542.1149567261633</v>
       </c>
       <c r="D4" t="n">
-        <v>553.4677521641667</v>
+        <v>553.4677521641673</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086477</v>
+        <v>981.3883278086467</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247795</v>
+        <v>305.2407236247799</v>
       </c>
       <c r="D3" t="n">
-        <v>9.264204964505211</v>
+        <v>9.264204964505552</v>
       </c>
       <c r="E3" t="n">
-        <v>349.1953979923663</v>
+        <v>349.1953979923651</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218297</v>
+        <v>145.8707812218306</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.934451625288602</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.5893695598437</v>
       </c>
       <c r="D4" t="n">
-        <v>11.35279543800334</v>
+        <v>11.35279543800402</v>
       </c>
       <c r="E4" t="n">
-        <v>427.920575644481</v>
+        <v>427.9205756444794</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173584</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364256</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.5893695598437</v>
       </c>
       <c r="L4" t="n">
-        <v>11.35279543800334</v>
+        <v>11.3527954380038</v>
       </c>
       <c r="M4" t="n">
-        <v>427.920575644481</v>
+        <v>427.9205756444796</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173584</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364256</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.5893695598437</v>
       </c>
       <c r="L4" t="n">
-        <v>11.35279543800334</v>
+        <v>11.35279543800402</v>
       </c>
       <c r="M4" t="n">
-        <v>427.920575644481</v>
+        <v>427.9205756444794</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173584</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364256</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.157454454363</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>201.1058921499584</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>220.027112942295</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.6436733987107</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038153</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,13 +27473,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,16 +27506,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377129</v>
       </c>
       <c r="V3" t="n">
-        <v>133.1863321645631</v>
+        <v>119.068542085342</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098472</v>
       </c>
     </row>
     <row r="4">
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R4" t="n">
-        <v>98.71403242334981</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390163</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>11.02434993297442</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>173.6136686016712</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>44.45716074097197</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>63.71649355172244</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>99.45183452997381</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>108.0728512656386</v>
@@ -27828,7 +27828,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>62.38845549152848</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>251.3833889560187</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.9453895236494</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9646330484317</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>53.41601472579995</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,22 +27932,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>11.73312545908036</v>
+        <v>135.4873070665456</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.30836251344154</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>112.291035322809</v>
       </c>
     </row>
     <row r="10">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>14.6108786393545</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>108.6517721680248</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>16.97319914237106</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.321691302451</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8965517281904</v>
+        <v>196.8965517281903</v>
       </c>
       <c r="T10" t="n">
         <v>221.2964387944122</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2341465824415</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>154.606916007503</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-4.168426311850774e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29484,7 +29484,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-12</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -29715,7 +29715,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-9.521272659185342e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -29733,7 +29733,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31121,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.469245706541462</v>
+        <v>3.469245706541463</v>
       </c>
       <c r="H8" t="n">
-        <v>35.52941259211776</v>
+        <v>35.52941259211777</v>
       </c>
       <c r="I8" t="n">
-        <v>133.7480951014398</v>
+        <v>133.7480951014399</v>
       </c>
       <c r="J8" t="n">
-        <v>294.4478927855737</v>
+        <v>294.4478927855738</v>
       </c>
       <c r="K8" t="n">
-        <v>441.3010635434738</v>
+        <v>441.301063543474</v>
       </c>
       <c r="L8" t="n">
-        <v>547.4729918350422</v>
+        <v>547.4729918350424</v>
       </c>
       <c r="M8" t="n">
-        <v>609.169190168749</v>
+        <v>609.1691901687492</v>
       </c>
       <c r="N8" t="n">
-        <v>619.02618453246</v>
+        <v>619.0261845324602</v>
       </c>
       <c r="O8" t="n">
-        <v>584.5288725380382</v>
+        <v>584.5288725380384</v>
       </c>
       <c r="P8" t="n">
-        <v>498.8818691577958</v>
+        <v>498.881869157796</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.6395072922796</v>
+        <v>374.6395072922797</v>
       </c>
       <c r="R8" t="n">
-        <v>217.9250056135353</v>
+        <v>217.9250056135354</v>
       </c>
       <c r="S8" t="n">
-        <v>79.05543653781365</v>
+        <v>79.05543653781368</v>
       </c>
       <c r="T8" t="n">
         <v>15.18662308038526</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2775396565233169</v>
+        <v>0.277539656523317</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,46 +31595,46 @@
         <v>1.856210096665087</v>
       </c>
       <c r="H9" t="n">
-        <v>17.92708172305492</v>
+        <v>17.92708172305493</v>
       </c>
       <c r="I9" t="n">
-        <v>63.90898797728479</v>
+        <v>63.90898797728481</v>
       </c>
       <c r="J9" t="n">
-        <v>175.3711477730817</v>
+        <v>175.3711477730818</v>
       </c>
       <c r="K9" t="n">
-        <v>299.7372242496425</v>
+        <v>299.7372242496426</v>
       </c>
       <c r="L9" t="n">
-        <v>403.0336878745838</v>
+        <v>403.033687874584</v>
       </c>
       <c r="M9" t="n">
-        <v>470.3213038786931</v>
+        <v>470.3213038786933</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7693093076446</v>
+        <v>482.7693093076448</v>
       </c>
       <c r="O9" t="n">
-        <v>441.6396013762761</v>
+        <v>441.6396013762762</v>
       </c>
       <c r="P9" t="n">
-        <v>354.4547157394936</v>
+        <v>354.4547157394937</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.9435905848275</v>
+        <v>236.9435905848277</v>
       </c>
       <c r="R9" t="n">
         <v>115.2478514403113</v>
       </c>
       <c r="S9" t="n">
-        <v>34.47828841831858</v>
+        <v>34.47828841831859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.481829293136903</v>
+        <v>7.481829293136906</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1221190853069136</v>
+        <v>0.1221190853069137</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.556184190905587</v>
+        <v>1.556184190905588</v>
       </c>
       <c r="H10" t="n">
-        <v>13.8358921700515</v>
+        <v>13.83589217005151</v>
       </c>
       <c r="I10" t="n">
-        <v>46.79870275923349</v>
+        <v>46.79870275923351</v>
       </c>
       <c r="J10" t="n">
-        <v>110.022222297025</v>
+        <v>110.0222222970251</v>
       </c>
       <c r="K10" t="n">
-        <v>180.8003087252127</v>
+        <v>180.8003087252128</v>
       </c>
       <c r="L10" t="n">
-        <v>231.3621478006362</v>
+        <v>231.3621478006363</v>
       </c>
       <c r="M10" t="n">
-        <v>243.9389454889549</v>
+        <v>243.938945488955</v>
       </c>
       <c r="N10" t="n">
-        <v>238.1386225955797</v>
+        <v>238.1386225955798</v>
       </c>
       <c r="O10" t="n">
-        <v>219.9595618200007</v>
+        <v>219.9595618200008</v>
       </c>
       <c r="P10" t="n">
-        <v>188.2134043255266</v>
+        <v>188.2134043255267</v>
       </c>
       <c r="Q10" t="n">
         <v>130.3092052948306</v>
       </c>
       <c r="R10" t="n">
-        <v>69.97170007471847</v>
+        <v>69.9717000747185</v>
       </c>
       <c r="S10" t="n">
-        <v>27.12004630878191</v>
+        <v>27.12004630878192</v>
       </c>
       <c r="T10" t="n">
-        <v>6.649150633869326</v>
+        <v>6.649150633869328</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08488277404939576</v>
+        <v>0.0848827740493958</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.873046301485644</v>
       </c>
       <c r="H11" t="n">
-        <v>49.9060854350899</v>
+        <v>49.90608543508986</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380254</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307178</v>
+        <v>413.5937135307175</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726054</v>
+        <v>619.869763472605</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216969</v>
+        <v>769.0032542216964</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857423</v>
+        <v>855.6642913857416</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898384</v>
+        <v>869.5098341898378</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294405</v>
+        <v>821.0534800294399</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615135</v>
+        <v>700.7501494615129</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895585</v>
+        <v>526.2341787895582</v>
       </c>
       <c r="R11" t="n">
-        <v>306.106494735698</v>
+        <v>306.1064947356978</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188517</v>
+        <v>0.3898437041188514</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596475</v>
+        <v>89.76921320596469</v>
       </c>
       <c r="J12" t="n">
-        <v>246.333582378304</v>
+        <v>246.3335823783038</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202553</v>
+        <v>421.0233277202549</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256413</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845327</v>
+        <v>660.6327957845323</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147138</v>
+        <v>237.3367583732607</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431807</v>
+        <v>620.3452877431803</v>
       </c>
       <c r="P12" t="n">
-        <v>266.1421801896196</v>
+        <v>497.8817840205465</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071842</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697585</v>
+        <v>48.42963285697581</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236082</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691788</v>
+        <v>65.73539745691784</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>253.9596068619738</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509174</v>
+        <v>324.9808615509172</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263708</v>
+        <v>342.6467528263705</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973093</v>
+        <v>334.499378897309</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050058</v>
+        <v>308.9643167050056</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761895</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570608</v>
+        <v>98.28514988570599</v>
       </c>
       <c r="S13" t="n">
-        <v>38.0939410292961</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826901</v>
+        <v>9.339672552826894</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>275.9770021735817</v>
@@ -32087,19 +32087,19 @@
         <v>740.13237155043</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>422.3544583169088</v>
+        <v>357.2897453669905</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862159</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737925</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>332.9841464938405</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>277.4567226539314</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,25 +32786,25 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>628.2482078836097</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>454.1257695262137</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33506,13 +33506,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>382.1329742631541</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.4019882588874</v>
+        <v>113.4019882588875</v>
       </c>
       <c r="K8" t="n">
-        <v>221.2112124984933</v>
+        <v>221.2112124984935</v>
       </c>
       <c r="L8" t="n">
-        <v>311.706576865055</v>
+        <v>311.7065768650552</v>
       </c>
       <c r="M8" t="n">
-        <v>378.8229569414763</v>
+        <v>378.8229569414765</v>
       </c>
       <c r="N8" t="n">
-        <v>389.6131209358691</v>
+        <v>389.6131209358693</v>
       </c>
       <c r="O8" t="n">
-        <v>354.4306611163514</v>
+        <v>354.4306611163516</v>
       </c>
       <c r="P8" t="n">
-        <v>267.6488734025262</v>
+        <v>267.6488734025265</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.3338174178301</v>
+        <v>152.3338174178302</v>
       </c>
       <c r="R8" t="n">
-        <v>2.339467799403195</v>
+        <v>2.33946779940328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.53352110641504</v>
+        <v>48.53352110641512</v>
       </c>
       <c r="K9" t="n">
-        <v>161.8957852752835</v>
+        <v>161.8957852752836</v>
       </c>
       <c r="L9" t="n">
-        <v>264.4793080947097</v>
+        <v>264.4793080947098</v>
       </c>
       <c r="M9" t="n">
-        <v>328.1872699566748</v>
+        <v>328.187269956675</v>
       </c>
       <c r="N9" t="n">
-        <v>351.4275972243113</v>
+        <v>351.4275972243115</v>
       </c>
       <c r="O9" t="n">
-        <v>299.0433569318316</v>
+        <v>299.0433569318318</v>
       </c>
       <c r="P9" t="n">
-        <v>220.4803083251634</v>
+        <v>220.4803083251635</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.96181649880603</v>
+        <v>96.96181649880614</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.78705055467734</v>
+        <v>51.78705055467742</v>
       </c>
       <c r="L10" t="n">
-        <v>96.47747151939788</v>
+        <v>96.47747151939797</v>
       </c>
       <c r="M10" t="n">
-        <v>105.0131615413498</v>
+        <v>105.0131615413499</v>
       </c>
       <c r="N10" t="n">
-        <v>110.4530781303465</v>
+        <v>110.4530781303466</v>
       </c>
       <c r="O10" t="n">
-        <v>81.50302336815793</v>
+        <v>81.50302336815801</v>
       </c>
       <c r="P10" t="n">
-        <v>50.48540027637895</v>
+        <v>50.48540027637904</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040315</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276249</v>
+        <v>399.7799124276244</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517096</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584696</v>
+        <v>625.3180581584689</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932476</v>
+        <v>640.0967705932469</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077537</v>
+        <v>590.9552686077532</v>
       </c>
       <c r="P11" t="n">
-        <v>469.517153706244</v>
+        <v>469.5171537062434</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.928488915109</v>
+        <v>303.9284889151087</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156593</v>
+        <v>90.5209569215657</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458963</v>
+        <v>283.1818887458959</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457672</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625144</v>
+        <v>518.4987618625139</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313805</v>
+        <v>105.9950462899274</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987363</v>
+        <v>477.7490432987358</v>
       </c>
       <c r="P12" t="n">
-        <v>132.1677727752893</v>
+        <v>363.9073766062163</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.8390133211627</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936553</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701833</v>
+        <v>61.18259316701821</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112335</v>
+        <v>352.5708868112333</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882111</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765376</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190455</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.650907441083</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998352</v>
+        <v>96.87566713998338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
         <v>149.139375506915</v>
@@ -35735,19 +35735,19 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>279.7582138724644</v>
+        <v>214.6935009225461</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>44.09163190712581</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>199.0097390795103</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>138.9023428740572</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37154,13 +37154,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37230,7 +37230,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191302</v>
       </c>
       <c r="M34" t="n">
         <v>426.2724270010451</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
